--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="inflow" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="outflow" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="page4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">initial!$A$7:$K$47</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">initial setup</t>
   </si>
@@ -67,6 +68,9 @@
     <t xml:space="preserve">Generally better sales</t>
   </si>
   <si>
+    <t xml:space="preserve">Equity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Costs</t>
   </si>
   <si>
@@ -83,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anti-social Network Adverts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt</t>
   </si>
 </sst>
 </file>
@@ -850,10 +857,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,6 +1022,11 @@
       <c r="H6" s="20" t="n">
         <f aca="false">G6</f>
         <v>250000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1047,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1059,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>5</v>
@@ -1073,7 +1085,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="n">
@@ -1087,7 +1099,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1113,7 +1125,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1139,7 +1151,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1165,7 +1177,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1187,6 +1199,111 @@
       <c r="H6" s="20" t="n">
         <f aca="false">G6</f>
         <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <f aca="false">D2</f>
+        <v>400000</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>600000</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="17" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <f aca="false">E3</f>
+        <v>400000</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <f aca="false">F3</f>
+        <v>400000</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <f aca="false">G3</f>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
